--- a/OppAffaire/Concurrence/matrice positionnement.xlsx
+++ b/OppAffaire/Concurrence/matrice positionnement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -426,11 +426,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="8275072"/>
-        <c:axId val="8276608"/>
+        <c:axId val="88679552"/>
+        <c:axId val="88681088"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="8275072"/>
+        <c:axId val="88679552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -440,7 +440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="8276608"/>
+        <c:crossAx val="88681088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -448,7 +448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8276608"/>
+        <c:axId val="88681088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -459,7 +459,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="8275072"/>
+        <c:crossAx val="88679552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -708,11 +708,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="9413376"/>
-        <c:axId val="9415296"/>
+        <c:axId val="88736896"/>
+        <c:axId val="88738432"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="9413376"/>
+        <c:axId val="88736896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,7 +722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="9415296"/>
+        <c:crossAx val="88738432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -730,7 +730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9415296"/>
+        <c:axId val="88738432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +741,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="9413376"/>
+        <c:crossAx val="88736896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -768,16 +768,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>499110</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>260985</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -799,15 +799,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>777240</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>453390</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1453515</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -971,7 +971,7 @@
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR" sz="1200" b="1" i="1" u="none"/>
-            <a:t>Deuxième </a:t>
+            <a:t>Troisième </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="1200" b="1" i="1" u="none" baseline="0"/>
@@ -1274,26 +1274,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -1311,7 +1311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1371,12 +1371,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -1394,7 +1394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1444,12 +1444,12 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1479,7 +1479,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1493,7 +1493,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1507,7 +1507,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1521,7 +1521,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1535,7 +1535,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1562,7 +1562,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1574,7 +1574,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
